--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2839626.179744006</v>
+        <v>2833904.56777612</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>195.5035783718474</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>79.65846781433522</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>218.7436292123195</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>117.3399053404218</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.35153719005481</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>307.8765544416924</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>35.19194956997725</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>26.78026256753493</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>56.16508827307993</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881767</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589018</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>187.4330611973848</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>118.3241054138015</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.70394587710641</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>117.8011645297731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>60.08798327243186</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>137.596306122101</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>165.3209102199961</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>200.5864956139556</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>69.25160695998082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>58.93891326891473</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>171.4987161871533</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.11714055223912</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>205.2823191463242</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>209.567519332071</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>27.69690030288077</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>57.80541963716035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>77.66065381366261</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.779601230298</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>653.0832559835876</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>294.8175573768371</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>294.8175573768371</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>287.8720566276336</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230298</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3857151273827</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.3857151273827</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1538.731846067564</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1538.731846067564</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1180.466147460813</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>325.9341147347918</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067564</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587812</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>76.52029211334911</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>76.52029211334911</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>76.52029211334911</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1521.073833303755</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1521.073833303755</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1521.073833303755</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2661.601667210165</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2485.424179524335</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>671.6612947898188</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>671.6612947898188</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>637.1336314069201</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>637.1336314069201</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D13" t="n">
-        <v>487.0169919945844</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1618.094712292007</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1328.991845417651</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1328.991845417651</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1039.57467538069</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.57467538069</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.7820962371599</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>676.4156786811474</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U16" t="n">
-        <v>1333.541210860804</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V16" t="n">
-        <v>1078.856722654917</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W16" t="n">
-        <v>1078.856722654917</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X16" t="n">
-        <v>1078.856722654917</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y16" t="n">
-        <v>858.0641435113871</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,13 +5500,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>818.2062848686787</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1682.725100522033</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.0874507179527</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>721.0874507179527</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689057</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.14263648317</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.72546644621</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>902.7359155481925</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y19" t="n">
-        <v>902.7359155481925</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1797.117834600128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>657.7758834233819</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7848081407827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.206478295169</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.216927397152</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>839.4243482536216</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2584.171204687569</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.7429179653792</v>
+        <v>747.3928343215919</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.125669518522</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952181</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="S25" t="n">
-        <v>1817.357298304601</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="T25" t="n">
-        <v>1595.590682874127</v>
+        <v>1956.343466104696</v>
       </c>
       <c r="U25" t="n">
-        <v>1595.590682874127</v>
+        <v>1667.24059923034</v>
       </c>
       <c r="V25" t="n">
-        <v>1595.590682874127</v>
+        <v>1667.24059923034</v>
       </c>
       <c r="W25" t="n">
-        <v>1306.173512837166</v>
+        <v>1377.823429193379</v>
       </c>
       <c r="X25" t="n">
-        <v>1078.183961939149</v>
+        <v>1149.833878295362</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.3913827956189</v>
+        <v>929.0412991518316</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3819.938960973982</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6414,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1507.836306285022</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1507.836306285022</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1253.151818079135</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>963.7346480421742</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>963.7346480421742</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.942068898644</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.926319971172</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M29" t="n">
-        <v>2064.476622801001</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N29" t="n">
-        <v>3044.228895027647</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>974.4454116758762</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>805.5092287479694</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689058</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V31" t="n">
-        <v>1674.827124689058</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W31" t="n">
-        <v>1604.876006547663</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>1376.886455649646</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>1156.093876506116</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>786.6724891157187</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3648.240574408499</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C34" t="n">
-        <v>3479.304391480593</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>3329.187752068257</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>3329.187752068257</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>3182.297804570347</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246546</v>
+        <v>1896.809210277517</v>
       </c>
       <c r="T34" t="n">
-        <v>4586.365838246546</v>
+        <v>1675.042594847043</v>
       </c>
       <c r="U34" t="n">
-        <v>4413.134811794876</v>
+        <v>1385.939727972687</v>
       </c>
       <c r="V34" t="n">
-        <v>4158.45032358899</v>
+        <v>1131.2552397668</v>
       </c>
       <c r="W34" t="n">
-        <v>3869.033153552029</v>
+        <v>841.8380697298394</v>
       </c>
       <c r="X34" t="n">
-        <v>3869.033153552029</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y34" t="n">
-        <v>3648.240574408499</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,43 +6922,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6967,7 +6967,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7016,10 +7016,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
         <v>794.2006632320242</v>
@@ -7034,22 +7034,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3501.35062691059</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3332.414443982683</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3182.297804570348</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>3985.665898699244</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3696.248728662284</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3696.248728662284</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3682.99909174083</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,13 +7244,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1245.704631333004</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>991.0201431271173</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>991.0201431271173</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>763.0305922291</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>542.2380130855698</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,22 +7414,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.844055175504</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N41" t="n">
-        <v>2812.369300656583</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>725.3071882816349</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.554715057174</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W43" t="n">
-        <v>1186.137545020213</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.748232255405</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.9556531118747</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M44" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>589.1512925299513</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>589.1512925299513</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>439.0346531176156</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>998.7893082582084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>770.7997573601911</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>770.7997573601911</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>161.8544041422913</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>205.0727796301219</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>32.86979469803993</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.907807245515869e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>411.0304280898992</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>404.5002992370415</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>258.6211785616921</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L29" t="n">
-        <v>16.80057335908799</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>170.1140909277296</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>285.6623071682324</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>219.9458872952495</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M44" t="n">
-        <v>354.4836849406613</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>147.090979048378</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>163.3838610030893</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.335964134057093</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>167.8877327918114</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>82.91152714110595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>49.4456565688547</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>107.158837826196</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>52.17271920934087</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>54.22803905617315</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>18.96245366221362</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.2713913766102</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>130.8301120625272</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.7131220184596</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>205.4675127998557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>80.92951905928871</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>16.14213605696619</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>258.5149379027321</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>167.9042357518768</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>68.77330883290657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747778</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26325,10 +26325,10 @@
         <v>635330.859019173</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="H2" t="n">
         <v>635330.8590191726</v>
@@ -26337,22 +26337,22 @@
         <v>635330.8590191726</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="K2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="L2" t="n">
         <v>635330.8590191728</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.859019173</v>
       </c>
       <c r="M2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="N2" t="n">
-        <v>635330.8590191732</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="O2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="P2" t="n">
         <v>635330.8590191728</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918982</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="M4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="N4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26487,7 +26487,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436551</v>
+        <v>-199342.2282436556</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708894</v>
+        <v>390625.6509708889</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.650970889</v>
+        <v>390625.6509708891</v>
       </c>
       <c r="E6" t="n">
-        <v>-206578.5655471373</v>
+        <v>-207250.5204493952</v>
       </c>
       <c r="F6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="G6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="H6" t="n">
-        <v>520798.848446269</v>
+        <v>520126.8935440111</v>
       </c>
       <c r="I6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440112</v>
       </c>
       <c r="J6" t="n">
-        <v>344375.6292536763</v>
+        <v>343703.6743514181</v>
       </c>
       <c r="K6" t="n">
-        <v>520798.8484462693</v>
+        <v>520126.8935440116</v>
       </c>
       <c r="L6" t="n">
-        <v>520798.8484462694</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="M6" t="n">
-        <v>391156.5336073244</v>
+        <v>390484.5787050666</v>
       </c>
       <c r="N6" t="n">
-        <v>520798.8484462696</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="O6" t="n">
-        <v>520798.8484462691</v>
+        <v>520126.8935440113</v>
       </c>
       <c r="P6" t="n">
-        <v>520798.8484462692</v>
+        <v>520126.8935440113</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7693133991602</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>334.1257022064598</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>62.83565667262114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>163.1867408599423</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.3581181989823</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>74.05381563056937</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>19.28645300483445</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758265</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>225.3573807562931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-8.444841250298201e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29234,7 +29234,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-7.55526918677704e-12</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>714.1562395552025</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1257805183409</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>370.0610812534403</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>866.6205424822314</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,16 +36135,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>943.4214150672681</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226322</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>657.383164781064</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L29" t="n">
-        <v>472.3906877514202</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36849,13 +36849,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>507.3053774831301</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>837.9641425811438</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>772.2477227081609</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37800,7 +37800,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M44" t="n">
-        <v>893.4048007708881</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38037,10 +38037,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2833904.56777612</v>
+        <v>2837310.05890057</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>79.65846781433522</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.88103122802834</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913998</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053131</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.4977170159606</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>35.19194956997725</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.93482921065027</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881767</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589018</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.4330611973848</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>69.60662835550686</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>37.69946686797912</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>60.08798327243186</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>66.23125412673343</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589028</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>89.90567558141956</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>200.5864956139556</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>25.01141625626355</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>58.93891326891473</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>15.07437110675912</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784706</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.93482921065055</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>209.567519332071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>107.9683500771333</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>27.69690030288077</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.045772923999</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C2" t="n">
-        <v>653.0832559835876</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D2" t="n">
-        <v>294.8175573768371</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E2" t="n">
-        <v>294.8175573768371</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="F2" t="n">
-        <v>287.8720566276336</v>
+        <v>639.3940095917631</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>221.4302014899499</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464726</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1344.072125019244</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1344.072125019244</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>933.0862202296362</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2661.601667210165</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2485.424179524335</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2485.424179524335</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2485.424179524335</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2485.424179524335</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2485.424179524335</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.958421263255</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1770.231306037953</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5260,49 +5260,49 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1767.017141662901</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1545.250526232427</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W16" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>484.0564502172056</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,40 +5521,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>312.7607075579278</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998329</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5731,49 +5731,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>987.7182791650667</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>747.3928343215919</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C25" t="n">
-        <v>686.6979017231758</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>536.5812623108401</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518522</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952181</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104696</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104696</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104696</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.24059923034</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1667.24059923034</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1377.823429193379</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X25" t="n">
-        <v>1149.833878295362</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.0412991518316</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
@@ -6220,10 +6220,10 @@
         <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6241,37 +6241,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6442,22 +6442,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,19 +6466,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>888.4135721382786</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6651,22 +6651,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1472.21450285678</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1183.111635982423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454626</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474453</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>432.2000540015823</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>270.9417306852388</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>120.8250912729031</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>120.8250912729031</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1896.809210277517</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1675.042594847043</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.939727972687</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.2552397668</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W34" t="n">
-        <v>841.8380697298394</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X34" t="n">
-        <v>613.848518831822</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y34" t="n">
-        <v>613.848518831822</v>
+        <v>452.5901955154785</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972666</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1296.118160724478</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="38">
@@ -7159,61 +7159,61 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464785</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X38" t="n">
         <v>3150.955528730109</v>
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1937.217375992936</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1745.531491819762</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1523.764876389288</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1234.662009514932</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>979.9775213090447</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>690.5603512720841</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>462.5708003740667</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>241.7782212305366</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7408,40 +7408,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604875</v>
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.083842285977</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1170.39935408009</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W43" t="n">
-        <v>880.9821840431298</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X43" t="n">
-        <v>652.9926331451124</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y43" t="n">
-        <v>432.2000540015823</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710931</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>89.52456338961838</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>103.7862464855144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400226</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-2.672729093238399e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>229.1155640189926</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.090979048378</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>2.335964134057093</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>79.0088446627055</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>248.8235314686119</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>107.158837826196</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>220.2917442098576</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>77.34114551720828</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>18.96245366221362</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>120.4096317666677</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>130.8301120625272</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>164.7576090751782</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>69.99732345939678</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.14213605696619</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>71.86363010480405</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5149379027321</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>33.50229141006236</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771810.9734747778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771810.9734747781</v>
+        <v>771810.973474778</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771810.973474778</v>
+        <v>771810.9734747781</v>
       </c>
     </row>
     <row r="13">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="F2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="I2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="J2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="L2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191727</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="F2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="G2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="I2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="K2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="L2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191728</v>
-      </c>
       <c r="O2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="P2" t="n">
         <v>635330.8590191728</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.883281897633048e-10</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26429,37 +26429,37 @@
         <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918982</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918987</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918988</v>
       </c>
       <c r="O4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26487,10 +26487,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199342.2282436556</v>
+        <v>-199342.2282436551</v>
       </c>
       <c r="C6" t="n">
-        <v>390625.6509708889</v>
+        <v>390625.6509708893</v>
       </c>
       <c r="D6" t="n">
-        <v>390625.6509708891</v>
+        <v>390625.650970889</v>
       </c>
       <c r="E6" t="n">
-        <v>-207250.5204493952</v>
+        <v>-206645.7610373632</v>
       </c>
       <c r="F6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="G6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="H6" t="n">
-        <v>520126.8935440111</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="I6" t="n">
-        <v>520126.8935440112</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="J6" t="n">
-        <v>343703.6743514181</v>
+        <v>344308.4337634505</v>
       </c>
       <c r="K6" t="n">
-        <v>520126.8935440116</v>
+        <v>520731.6529560434</v>
       </c>
       <c r="L6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560431</v>
       </c>
       <c r="M6" t="n">
-        <v>390484.5787050666</v>
+        <v>391089.3381170986</v>
       </c>
       <c r="N6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560437</v>
       </c>
       <c r="O6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560433</v>
       </c>
       <c r="P6" t="n">
-        <v>520126.8935440113</v>
+        <v>520731.6529560434</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>334.1257022064598</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>310.0417415363288</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594879</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.28645300483441</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.28645300483445</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758265</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.444841250298201e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29234,7 +29234,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-7.55526918677704e-12</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29985,10 +29985,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.213031728144007e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35257,22 +35257,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,16 +35661,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303029</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>628.4456792198451</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>797.5422943919199</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36530,7 +36530,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226322</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36834,22 +36834,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>440.9775330409149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282419</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>684.7056784113249</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814178</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37791,10 +37791,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
